--- a/Computational results.xlsx
+++ b/Computational results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lili\Nutstore\1\2023\traffic resilience\paper-Bus bridge with bus deployment\Code-MPCBusBridge0909\result\result-algorithmPresentation2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lili\Nutstore\1\2023\traffic resilience\paper-Bus bridge with bus deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A0394-64EF-4E48-BA79-5C44FF7849BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED93F3A-5AE5-44F2-9E80-32AD0919BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1470" windowWidth="19240" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Time slot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affected onboard passengers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -188,12 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,15 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" customWidth="1"/>
+    <col min="5" max="14" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
@@ -495,18 +503,24 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1536643</v>
-      </c>
-      <c r="B2" s="1">
-        <v>108454.666666666</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1645097.66666666</v>
+      <c r="A2" s="4">
+        <v>1615617.53691199</v>
+      </c>
+      <c r="B2" s="4">
+        <v>80017.766666666605</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1797</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1697432.3</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.3">
@@ -704,172 +718,172 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
         <v>3</v>
       </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>1</v>
-      </c>
       <c r="BE6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="1">
         <v>1</v>
@@ -878,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI6" s="1">
         <v>0</v>
@@ -1105,55 +1119,55 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
       <c r="J10" s="1">
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="P10" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" s="1">
         <v>2</v>
@@ -1162,28 +1176,28 @@
         <v>3</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="1">
         <v>2</v>
       </c>
       <c r="AB10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="1">
         <v>2</v>
@@ -1194,88 +1208,88 @@
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>138060</v>
+        <v>115050</v>
       </c>
       <c r="C11" s="1">
-        <v>214170</v>
+        <v>196470</v>
       </c>
       <c r="D11" s="1">
-        <v>33630</v>
+        <v>28320</v>
       </c>
       <c r="E11" s="1">
-        <v>65490</v>
+        <v>74340</v>
       </c>
       <c r="F11" s="1">
-        <v>35400</v>
+        <v>28320</v>
       </c>
       <c r="G11" s="1">
-        <v>92040</v>
+        <v>72570</v>
       </c>
       <c r="H11" s="1">
-        <v>116820</v>
+        <v>97350</v>
       </c>
       <c r="I11" s="1">
         <v>40710</v>
       </c>
       <c r="J11" s="1">
-        <v>24780</v>
+        <v>30090</v>
       </c>
       <c r="K11" s="1">
-        <v>171690</v>
+        <v>200010</v>
       </c>
       <c r="L11" s="1">
-        <v>60180</v>
+        <v>53100</v>
       </c>
       <c r="M11" s="1">
-        <v>132750</v>
+        <v>143370</v>
       </c>
       <c r="N11" s="1">
-        <v>173460</v>
+        <v>194700</v>
       </c>
       <c r="O11" s="1">
-        <v>192930</v>
+        <v>187620</v>
       </c>
       <c r="P11" s="1">
-        <v>92040</v>
+        <v>83190</v>
       </c>
       <c r="Q11" s="1">
         <v>159300</v>
       </c>
       <c r="R11" s="1">
+        <v>79650</v>
+      </c>
+      <c r="S11" s="1">
+        <v>38940</v>
+      </c>
+      <c r="T11" s="1">
+        <v>65490</v>
+      </c>
+      <c r="U11" s="1">
         <v>83190</v>
       </c>
-      <c r="S11" s="1">
-        <v>47790</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
+        <v>26550</v>
+      </c>
+      <c r="W11" s="1">
+        <v>173460</v>
+      </c>
+      <c r="X11" s="1">
+        <v>180540</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>37170</v>
+      </c>
+      <c r="Z11" s="1">
         <v>84960</v>
       </c>
-      <c r="U11" s="1">
-        <v>79650</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="AA11" s="1">
         <v>31860</v>
-      </c>
-      <c r="W11" s="1">
-        <v>171690</v>
-      </c>
-      <c r="X11" s="1">
-        <v>138060</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>53100</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>81420</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>26550</v>
       </c>
       <c r="AB11" s="1">
         <v>49560</v>
       </c>
       <c r="AC11" s="1">
-        <v>90270</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.3">
@@ -1324,179 +1338,195 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>120.93</v>
+        <v>27.77</v>
       </c>
       <c r="C14" s="1">
-        <v>33.68</v>
+        <v>300.55</v>
       </c>
       <c r="D14" s="1">
-        <v>151.53</v>
+        <v>251.53</v>
       </c>
       <c r="E14" s="1">
-        <v>36.24</v>
+        <v>136.24</v>
       </c>
       <c r="F14" s="1">
-        <v>287.42</v>
+        <v>121.88</v>
       </c>
       <c r="G14" s="1">
-        <v>191.19</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>31.28</v>
+        <v>179.91</v>
       </c>
       <c r="I14" s="1">
-        <v>305.60000000000002</v>
+        <v>168.32</v>
       </c>
       <c r="J14" s="1">
-        <v>55.31</v>
+        <v>230.53</v>
       </c>
       <c r="K14" s="1">
-        <v>32.44</v>
+        <v>144.43</v>
       </c>
       <c r="L14" s="1">
-        <v>100.11</v>
+        <v>31.09</v>
       </c>
       <c r="M14" s="1">
-        <v>20.6</v>
-      </c>
-      <c r="N14">
+        <v>5.72</v>
+      </c>
+      <c r="N14" s="3">
         <f>AVERAGE(B14:M14)</f>
-        <v>113.8608333333333</v>
+        <v>158.17666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.3E-3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.4E-3</v>
-      </c>
-      <c r="M15" s="3">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1.2999999999999999E-2</v>
+      <c r="B15" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f>AVERAGE(B15:M15)</f>
+        <v>1.7233333333333333E-2</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>445260.06</v>
-      </c>
-      <c r="C16">
-        <v>340100.1</v>
-      </c>
-      <c r="D16">
-        <v>465059.8</v>
-      </c>
-      <c r="E16">
-        <v>563850.82999999996</v>
-      </c>
-      <c r="F16">
-        <v>694776.11</v>
-      </c>
-      <c r="G16">
-        <v>768143.55</v>
-      </c>
-      <c r="H16">
-        <v>802629.84</v>
-      </c>
-      <c r="I16">
-        <v>824342.19</v>
-      </c>
-      <c r="J16">
-        <v>664769.11</v>
-      </c>
-      <c r="K16">
-        <v>511451.77</v>
-      </c>
-      <c r="L16">
-        <v>338404.48</v>
-      </c>
-      <c r="M16">
-        <v>168788.38</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ref="N15:N20" si="0">AVERAGE(B16:M16)</f>
-        <v>548964.68500000017</v>
+      <c r="B16" s="3">
+        <v>457073.62</v>
+      </c>
+      <c r="C16" s="3">
+        <v>225807.37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>369642.87</v>
+      </c>
+      <c r="E16" s="3">
+        <v>508734.7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>632990.11</v>
+      </c>
+      <c r="G16" s="3">
+        <v>734717.72</v>
+      </c>
+      <c r="H16" s="3">
+        <v>796822.83</v>
+      </c>
+      <c r="I16" s="3">
+        <v>840378.83</v>
+      </c>
+      <c r="J16" s="3">
+        <v>684865.83</v>
+      </c>
+      <c r="K16" s="3">
+        <v>511714.31</v>
+      </c>
+      <c r="L16" s="3">
+        <v>339456.99</v>
+      </c>
+      <c r="M16" s="3">
+        <v>169270.39999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16:N17" si="0">AVERAGE(B16:M16)</f>
+        <v>522622.96500000003</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>437917.01</v>
-      </c>
-      <c r="C17">
-        <v>315268.34000000003</v>
-      </c>
-      <c r="D17">
-        <v>461166</v>
-      </c>
-      <c r="E17">
-        <v>558591.84</v>
-      </c>
-      <c r="F17">
-        <v>692451.05</v>
-      </c>
-      <c r="G17">
-        <v>765759.89</v>
-      </c>
-      <c r="H17">
-        <v>794779.78</v>
-      </c>
-      <c r="I17">
-        <v>820652.72</v>
-      </c>
-      <c r="J17">
-        <v>658374.81000000006</v>
-      </c>
-      <c r="K17">
-        <v>507286.31</v>
-      </c>
-      <c r="L17">
-        <v>337915.98</v>
-      </c>
-      <c r="M17">
-        <v>167213.84</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>543114.79749999987</v>
-      </c>
+      <c r="B17" s="3">
+        <v>454785.07</v>
+      </c>
+      <c r="C17" s="3">
+        <v>218814.99699999992</v>
+      </c>
+      <c r="D17" s="3">
+        <v>362387.10730000003</v>
+      </c>
+      <c r="E17" s="3">
+        <v>498845.748997927</v>
+      </c>
+      <c r="F17" s="3">
+        <v>620505.50066000002</v>
+      </c>
+      <c r="G17" s="3">
+        <v>717832.94440000004</v>
+      </c>
+      <c r="H17" s="3">
+        <v>781031.973734</v>
+      </c>
+      <c r="I17" s="3">
+        <v>823532.99203299999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>671328.70620000304</v>
+      </c>
+      <c r="K17" s="3">
+        <v>501623.58292999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>337723.09</v>
+      </c>
+      <c r="M17" s="3">
+        <v>168259.35</v>
+      </c>
+      <c r="N17" s="3">
+        <f>AVERAGE(B17:M17)</f>
+        <v>513055.92193791078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
